--- a/EstimaciónDelphi_diseñar_solucion.xlsx
+++ b/EstimaciónDelphi_diseñar_solucion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Complejidad</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Diagramas entidad-relación</t>
+  </si>
+  <si>
+    <t>Prototipos Mockups</t>
   </si>
 </sst>
 </file>
@@ -718,12 +721,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -731,99 +827,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,118 +1161,118 @@
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
@@ -1304,10 +1307,10 @@
       <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="28" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1322,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -1351,7 +1354,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="62"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1384,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="11" t="s">
         <v>4</v>
       </c>
@@ -1412,183 +1415,218 @@
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="60"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="36"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="36"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="B22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="36"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="36"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:K18"/>
@@ -1605,39 +1643,6 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EstimaciónDelphi_diseñar_solucion.xlsx
+++ b/EstimaciónDelphi_diseñar_solucion.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AcmeDev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-1380" yWindow="3915" windowWidth="15195" windowHeight="4170" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="Estimaciones Delphi" sheetId="20" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -718,12 +723,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -731,99 +829,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,7 +934,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1140,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,118 +1163,118 @@
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
@@ -1304,10 +1309,10 @@
       <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="28" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1324,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -1351,7 +1356,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="62"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1386,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="11" t="s">
         <v>4</v>
       </c>
@@ -1412,183 +1417,216 @@
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="60"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="36"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="36"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="36"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="36"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="36"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:K18"/>
@@ -1605,39 +1643,6 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
